--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1164680.582892049</v>
+        <v>1193524.893646777</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564204</v>
+        <v>189902.9539564201</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>186.5182518621473</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448612</v>
@@ -707,13 +709,13 @@
         <v>54.47840257481165</v>
       </c>
       <c r="S2" t="n">
-        <v>26.11105845930267</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250842</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984493</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755695</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903419</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>73.46100831328394</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>137.0203456208574</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>18.37682225755661</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1075,7 +1077,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>113.6496344454574</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>184.5808806410317</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1262,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>83.59830597394826</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>15.99208609491553</v>
+        <v>179.1655810026941</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -1582,7 +1584,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>83.59830597394803</v>
+        <v>230.2634979541061</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>339.0399185806814</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>26.94389492651069</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>401.3550844723776</v>
+        <v>327.7946815628224</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>136.8730739824632</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>17.72813013148768</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>230.2634979541055</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2321,16 +2323,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>26.64360395382603</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>9.275596830496854</v>
+        <v>146.6850513083905</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228954</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>339.0399185806814</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>113.0830991372445</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2992,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.14450450822213</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.4526127311943</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>401.3550844723776</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.72683757586824</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>50.8642966346362</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3269,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>376.184863643924</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3317,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>28.92900240760887</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3466,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>29.35994366372752</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="38">
@@ -3506,16 +3508,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>26.64360395382558</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017901</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H44" t="n">
-        <v>253.8009814055297</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>112.8566199863818</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.00429467105817</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1920.918182229334</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1551.955665288922</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1551.955665288922</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733129</v>
@@ -4343,7 +4345,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
         <v>2544.691559791253</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2615.745595024168</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2397.110927996231</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2143.349142634322</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1812.286255290752</v>
+        <v>2311.057514205146</v>
       </c>
       <c r="W2" t="n">
-        <v>1812.286255290752</v>
+        <v>2311.057514205146</v>
       </c>
       <c r="X2" t="n">
-        <v>1812.286255290752</v>
+        <v>2311.057514205146</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>1920.918182229334</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4452,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L4" t="n">
         <v>237.8190324477911</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064347</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124033</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810051</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.1711973675267</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="C5" t="n">
-        <v>412.208680427115</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D5" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036446</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4607,10 +4609,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1171.310529343338</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y5" t="n">
-        <v>781.1711973675267</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036446</v>
@@ -4647,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4689,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="E7" t="n">
         <v>709.5665374816297</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1275.883734065348</v>
+        <v>422.9054987607762</v>
       </c>
       <c r="C8" t="n">
-        <v>906.9212171249362</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D8" t="n">
-        <v>906.9212171249362</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E8" t="n">
-        <v>906.9212171249362</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F8" t="n">
-        <v>495.9353123353287</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G8" t="n">
-        <v>495.9353123353287</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>168.7405923713315</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.48357412947</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4880,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>138.3857151273829</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>593.1972104235191</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="C11" t="n">
-        <v>593.1972104235191</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D11" t="n">
-        <v>593.1972104235191</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E11" t="n">
-        <v>207.4089578252748</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5069,22 +5071,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2680.995468700126</v>
+        <v>2516.173756672067</v>
       </c>
       <c r="U11" t="n">
-        <v>2427.233683338217</v>
+        <v>2262.411971310158</v>
       </c>
       <c r="V11" t="n">
-        <v>2096.170795994647</v>
+        <v>2262.411971310158</v>
       </c>
       <c r="W11" t="n">
-        <v>1743.402140724533</v>
+        <v>1909.643316040044</v>
       </c>
       <c r="X11" t="n">
-        <v>1369.936382463453</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="Y11" t="n">
-        <v>979.7970504876409</v>
+        <v>1536.177557778964</v>
       </c>
     </row>
     <row r="12">
@@ -5100,10 +5102,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
         <v>359.3385232961342</v>
@@ -5112,10 +5114,10 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>53.94298182036445</v>
@@ -5203,31 +5205,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T13" t="n">
-        <v>138.3857151273827</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U13" t="n">
         <v>53.94298182036445</v>
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1920.409918978289</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C14" t="n">
-        <v>1551.447402037877</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D14" t="n">
-        <v>1193.181703431127</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E14" t="n">
-        <v>807.3934508328825</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F14" t="n">
-        <v>396.407546043275</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5282,7 +5284,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5315,13 +5317,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y14" t="n">
-        <v>2307.009759042411</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5376,22 +5378,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5461,25 +5463,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2310.5492509541</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C17" t="n">
-        <v>1941.586734013689</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D17" t="n">
-        <v>1583.321035406938</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E17" t="n">
-        <v>1197.532782808694</v>
+        <v>1276.695321531225</v>
       </c>
       <c r="F17" t="n">
-        <v>786.5468780190865</v>
+        <v>865.7094167416178</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y17" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5595,13 +5597,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5613,22 +5615,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>857.6950425204218</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>857.6950425204218</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>857.6950425204218</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E20" t="n">
-        <v>471.9067899221776</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5768,34 +5770,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2558.893460732907</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2305.131675370998</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>1974.068788027427</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1621.300132757313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1247.834374496234</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>857.6950425204218</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5828,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5841,13 +5843,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.9333588715792</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C22" t="n">
-        <v>495.9333588715792</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D22" t="n">
-        <v>495.9333588715792</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E22" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F22" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G22" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>513.840561024597</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T22" t="n">
-        <v>495.9333588715792</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="U22" t="n">
-        <v>495.9333588715792</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V22" t="n">
-        <v>495.9333588715792</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W22" t="n">
-        <v>495.9333588715792</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X22" t="n">
-        <v>495.9333588715792</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y22" t="n">
-        <v>495.9333588715792</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>781.1711973675267</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C23" t="n">
-        <v>412.208680427115</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D23" t="n">
-        <v>53.94298182036446</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036446</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036446</v>
@@ -5987,7 +5989,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733129</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2284.144782938654</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>1931.37612766854</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>1557.91036940746</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1167.771037431648</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>108.9687959810047</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C25" t="n">
-        <v>108.9687959810047</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="D25" t="n">
-        <v>108.9687959810047</v>
+        <v>350.0227938960813</v>
       </c>
       <c r="E25" t="n">
-        <v>108.9687959810047</v>
+        <v>202.1097003136882</v>
       </c>
       <c r="F25" t="n">
-        <v>108.9687959810047</v>
+        <v>202.1097003136882</v>
       </c>
       <c r="G25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
         <v>53.94298182036446</v>
@@ -6151,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X25" t="n">
-        <v>108.9687959810047</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.9687959810047</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776797</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776797</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785532</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889456</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6224,19 +6226,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6266,10 +6268,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
@@ -6315,31 +6317,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
         <v>53.94298182036445</v>
@@ -6388,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1920.409918978289</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="C29" t="n">
-        <v>1551.447402037877</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="D29" t="n">
-        <v>1193.181703431127</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E29" t="n">
-        <v>807.3934508328825</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F29" t="n">
-        <v>396.407546043275</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2364.289071326402</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2033.226183982832</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1680.457528712718</v>
       </c>
       <c r="X29" t="n">
-        <v>2697.149091018222</v>
+        <v>1306.991770451638</v>
       </c>
       <c r="Y29" t="n">
-        <v>2307.009759042411</v>
+        <v>1306.991770451638</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M30" t="n">
         <v>1194.968834417902</v>
@@ -6561,22 +6563,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>2600.919541055458</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>2600.919541055458</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T31" t="n">
-        <v>2373.61135372406</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U31" t="n">
-        <v>2373.61135372406</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V31" t="n">
-        <v>2373.61135372406</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W31" t="n">
-        <v>2373.61135372406</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X31" t="n">
-        <v>2373.61135372406</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y31" t="n">
-        <v>2373.61135372406</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2310.5492509541</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C32" t="n">
-        <v>1941.586734013689</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D32" t="n">
-        <v>1583.321035406938</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E32" t="n">
-        <v>1197.532782808694</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F32" t="n">
-        <v>786.5468780190865</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6698,19 +6700,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6740,10 +6742,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>2697.149091018222</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2636.818952052699</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C34" t="n">
-        <v>2467.882769124792</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="D34" t="n">
-        <v>2317.766129712456</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="E34" t="n">
-        <v>2169.853036130063</v>
+        <v>432.0692320582253</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>432.0692320582253</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>263.0694317965578</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>105.3210592290879</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>833.8914035503838</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>464.928886609972</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>464.928886609972</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F35" t="n">
         <v>53.94298182036445</v>
@@ -6935,10 +6937,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224076</v>
@@ -6947,7 +6949,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6965,22 +6967,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2667.927876465082</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2667.927876465082</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2336.864989121511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>1984.096333851397</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1610.630575590317</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1220.491243614505</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -7017,7 +7019,7 @@
         <v>53.94298182036423</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614628</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
         <v>670.8219208598708</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2489.929004554789</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>2320.992821626882</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>2170.876182214546</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
         <v>2022.963088632153</v>
@@ -7114,31 +7116,31 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>2667.732171871844</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>2489.929004554789</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>2489.929004554789</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>2489.929004554789</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V37" t="n">
-        <v>2489.929004554789</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W37" t="n">
-        <v>2489.929004554789</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X37" t="n">
-        <v>2489.929004554789</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y37" t="n">
-        <v>2489.929004554789</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>781.1711973675267</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>412.2086804271149</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D38" t="n">
-        <v>53.94298182036445</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2284.144782938654</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1931.37612766854</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1557.91036940746</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1167.771037431648</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>598.0446400632119</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7415,13 +7417,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7491,22 +7493,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.1289842064342</v>
+        <v>2294.708047044453</v>
       </c>
       <c r="C43" t="n">
-        <v>667.8624625746712</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="D43" t="n">
-        <v>517.7458231623355</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="E43" t="n">
-        <v>369.8327295799424</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>2476.356511874692</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1448.521729839487</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C44" t="n">
-        <v>1079.559212899076</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D44" t="n">
-        <v>721.2935142923252</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E44" t="n">
-        <v>721.2935142923252</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F44" t="n">
-        <v>310.3076095027176</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G44" t="n">
-        <v>310.3076095027176</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W44" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X44" t="n">
-        <v>1838.661061815299</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1448.521729839487</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.05843098304948</v>
+        <v>325.6879402326645</v>
       </c>
       <c r="C46" t="n">
-        <v>65.05843098304948</v>
+        <v>325.6879402326645</v>
       </c>
       <c r="D46" t="n">
-        <v>65.05843098304948</v>
+        <v>325.6879402326645</v>
       </c>
       <c r="E46" t="n">
-        <v>65.05843098304948</v>
+        <v>325.6879402326645</v>
       </c>
       <c r="F46" t="n">
-        <v>65.05843098304948</v>
+        <v>325.6879402326645</v>
       </c>
       <c r="G46" t="n">
-        <v>65.05843098304948</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H46" t="n">
-        <v>65.05843098304948</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>65.05843098304948</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X46" t="n">
-        <v>285.8510101265796</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.05843098304948</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451762</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9410,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119844</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10667,10 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L36" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,7 +11141,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>195.4121182101145</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>148.3046543496689</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22711,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890122</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229435</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>309.2728333501966</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22796,7 +22798,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22847,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>232.7107550576117</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22948,7 +22950,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>38.28168179940388</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>31.86743971662608</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23224,16 +23226,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6835682680295</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>200.4562342627423</v>
+        <v>37.28273935496367</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23437,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>202.6835682680297</v>
+        <v>56.01837628787163</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>74.74425144011354</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>296.9788778378464</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23555,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>12.42908554841739</v>
+        <v>85.98948845797258</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>79.57524637519464</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,13 +24144,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.3069753265966</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787223</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24209,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24260,13 +24262,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>224.5805635544633</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24367,16 +24369,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>158.0342054285541</v>
+        <v>20.6247509506604</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24385,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049789962</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24506,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>72.60755131498752</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24622,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>74.74425144011354</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>138.1410683710448</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24859,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>80.52068747193573</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>56.69292621882457</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>12.42908554841739</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>120.1051426060691</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>84.10132515770202</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25157,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -25205,16 +25207,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>187.5193179500489</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25354,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>182.7855952862914</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25372,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="38">
@@ -25394,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25445,13 +25447,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>224.5805635544637</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401876</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.5291145295021</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H44" t="n">
-        <v>70.12179135882749</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25910,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>54.45318227266907</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>34.19566451747882</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.434574696</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.434574696</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731739.4345746958</v>
+        <v>731739.4345746959</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731739.434574696</v>
+        <v>731739.4345746959</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731739.4345746958</v>
+        <v>731739.4345746961</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.434574696</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="C2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="D2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="D2" t="n">
-        <v>289152.6100157574</v>
-      </c>
       <c r="E2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="F2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="G2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="H2" t="n">
         <v>289152.6100157577</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="J2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="K2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="L2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="M2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="I2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="P2" t="n">
         <v>289152.6100157576</v>
-      </c>
-      <c r="L2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="P2" t="n">
-        <v>289152.6100157574</v>
       </c>
     </row>
     <row r="3">
@@ -26421,31 +26423,31 @@
         <v>9371.018034361485</v>
       </c>
       <c r="D4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="E4" t="n">
         <v>9371.018034361481</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="G4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="H4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="I4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="J4" t="n">
         <v>9371.018034361483</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9371.018034361481</v>
       </c>
       <c r="K4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="L4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="M4" t="n">
         <v>9371.018034361483</v>
@@ -26457,7 +26459,7 @@
         <v>9371.018034361485</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26485,7 +26487,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340947</v>
@@ -26494,7 +26496,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26509,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393045.3652965584</v>
+        <v>-393045.3652965581</v>
       </c>
       <c r="C6" t="n">
+        <v>196922.5139179868</v>
+      </c>
+      <c r="D6" t="n">
         <v>196922.5139179866</v>
-      </c>
-      <c r="D6" t="n">
-        <v>196922.5139179864</v>
       </c>
       <c r="E6" t="n">
         <v>230550.1139179866</v>
@@ -26534,34 +26536,34 @@
         <v>230550.1139179866</v>
       </c>
       <c r="G6" t="n">
+        <v>230550.1139179866</v>
+      </c>
+      <c r="H6" t="n">
+        <v>230550.1139179867</v>
+      </c>
+      <c r="I6" t="n">
         <v>230550.1139179868</v>
       </c>
-      <c r="H6" t="n">
-        <v>230550.1139179866</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>54126.89472539381</v>
+      </c>
+      <c r="K6" t="n">
         <v>230550.1139179865</v>
       </c>
-      <c r="J6" t="n">
-        <v>54126.89472539363</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>230550.1139179868</v>
+      </c>
+      <c r="M6" t="n">
         <v>230550.1139179867</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
+        <v>230550.1139179867</v>
+      </c>
+      <c r="O6" t="n">
         <v>230550.1139179865</v>
       </c>
-      <c r="M6" t="n">
-        <v>230550.1139179866</v>
-      </c>
-      <c r="N6" t="n">
-        <v>230550.1139179866</v>
-      </c>
-      <c r="O6" t="n">
-        <v>230550.1139179866</v>
-      </c>
       <c r="P6" t="n">
-        <v>230550.1139179865</v>
+        <v>230550.1139179867</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26740,13 @@
         <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26753,19 +26755,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26805,7 +26807,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545557</v>
@@ -26814,7 +26816,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26829,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -34778,7 +34780,7 @@
         <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047519</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713858</v>
@@ -34787,7 +34789,7 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338904</v>
+        <v>439.883913335513</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245899</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35252,7 +35254,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35732,13 +35734,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,13 +35898,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35972,10 +35974,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36452,7 +36454,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36683,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>138.3897561047524</v>
@@ -36920,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L36" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37877,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
